--- a/blasmorkai/evidence.xlsx
+++ b/blasmorkai/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -124,12 +124,48 @@
     <t xml:space="preserve">class id you issued</t>
   </si>
   <si>
+    <t xml:space="preserve">08929272C79F110641C06859762031D7B7A3A55B0382FE1942CE91D93AC58A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0AA5FAB37CF5E282D7F6292E34BE65032E252757267BBC48D75287A72B8F197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superCoolCollection</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
     <t xml:space="preserve">nft id you minted</t>
   </si>
   <si>
+    <t xml:space="preserve">F834EBCE74A58E204CCEECD4A6C21AE780215F9605697032A2225F001C16110A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">token001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07DA8119F938556BA0EE53B5F656C3D2B607152D9A20D4C6A92AA9B95C9EB1A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">token002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52850A4967FC3FF86A966F52DAEEB4F43046BA670EBD7DB2184794C2E5E4A652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coolToken1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7830767E6FCF8B64AE6F518258C7047E5A42B04CAF68BBCCF4CFD5359BA9505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coolToken2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
@@ -142,10 +178,55 @@
     <t xml:space="preserve">dest chain id</t>
   </si>
   <si>
+    <t xml:space="preserve">3B1F984A2DBF0E46812E0B5B89937399C12B9F001DF3B1383B0AE7889BE05DC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stars1c366w3kv6urcg6s7qsmdd360utlykkku0rjn6ngh0x5g0nd79ppqy9yn75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elgafar-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0D20EC7A8780240094C3742507CCECDBBEAF35336301D804275337D5A25EE75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stars1sa7gdcpazdxxjte6tvygjf0d4nrc7l8ca4zz85qw66mfq0hdunrsfupqsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3953567C651449F2D1A45F10EA4A9C5DACBD84807BC91B48B0EAA6BD07F2A8D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/8538CEDC73F1063C104607F5457D0F5A3649E18FC4ECF57A7A76EF8636547DB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F9DEB3B08D9C80FB6603E5B798CB8E10405FEFFDC10F849D0DAFAACC3D0C5780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/B8CC10F74AA27BDABC26D12ED6133FB73710139CE38F19DF4190F26F99795FF6</t>
+  </si>
+  <si>
     <t xml:space="preserve">tx hash on dest chain</t>
   </si>
   <si>
     <t xml:space="preserve">ibc class on chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source chain id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92C0ED09BAB635B2B3E796903C4B42C05C4A8F91CC55BA890B01EF8FE388B687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5826D3B91612A84A1BA8A51373FE7E7A0FA2D93B198F2CB00E8D297763EDA027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40FD09ECFC47ECA0D4997FA9A829595B7FE7E62DD4E92BE7EAA2BAE6E18472A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1905F8CDC82F35CEFA9D5D71757C1F01112C1DCABF3BF1182C1D3A0C9D1F1EC</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -356,13 +437,13 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.18"/>
@@ -473,7 +554,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -483,17 +564,17 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -516,7 +597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -526,17 +607,17 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -559,7 +640,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -569,17 +650,17 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -602,7 +683,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -612,17 +693,17 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -645,7 +726,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -655,25 +736,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +779,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -708,25 +789,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +832,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -761,25 +842,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +885,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -814,25 +895,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +938,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -867,25 +948,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +991,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -920,25 +1001,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -957,15 +1038,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.91"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,68 +1114,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1157,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1069,25 +1167,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1210,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1121,12 +1219,12 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1249,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1160,12 +1258,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1288,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1199,12 +1297,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1327,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1238,12 +1336,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1262,15 +1360,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.91"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
   </cols>
   <sheetData>
@@ -1282,7 +1381,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,8 +1392,52 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1312,15 +1455,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.91"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
   </cols>
   <sheetData>
@@ -1332,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,41 +1487,159 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,80 +1650,52 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1480,16 +1714,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.36"/>
   </cols>
@@ -1502,38 +1736,109 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1544,7 +1849,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1554,58 +1859,15 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/blasmorkai/evidence.xlsx
+++ b/blasmorkai/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -223,7 +223,10 @@
     <t xml:space="preserve">5826D3B91612A84A1BA8A51373FE7E7A0FA2D93B198F2CB00E8D297763EDA027</t>
   </si>
   <si>
-    <t xml:space="preserve">40FD09ECFC47ECA0D4997FA9A829595B7FE7E62DD4E92BE7EAA2BAE6E18472A7</t>
+    <t xml:space="preserve">7FE8143DDF01113E6FFF24D43C512AA0DD2C8D724A8E529B7C9B85FE7F38F0AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">token003</t>
   </si>
   <si>
     <t xml:space="preserve">F1905F8CDC82F35CEFA9D5D71757C1F01112C1DCABF3BF1182C1D3A0C9D1F1EC</t>
@@ -441,7 +444,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.63"/>
@@ -554,7 +557,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -597,7 +600,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -640,7 +643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -683,7 +686,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -726,7 +729,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -741,285 +744,285 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1047,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.91"/>
@@ -1104,7 +1107,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1119,73 +1122,73 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1213,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1219,12 +1222,12 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1252,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1258,12 +1261,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1291,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1297,12 +1300,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1330,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1336,12 +1339,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1369,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
@@ -1461,7 +1464,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.77"/>
@@ -1549,7 +1552,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.82"/>
@@ -1630,11 +1633,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -1716,11 +1719,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.4"/>
@@ -1764,7 +1767,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -1806,7 +1809,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1849,7 +1852,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
